--- a/Excel/Datos_ok.xlsx
+++ b/Excel/Datos_ok.xlsx
@@ -514,7 +514,7 @@
           <t>direccion 6</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>Insertado</t>
         </is>
